--- a/Assets/StreamingAssets/Excels/TestData.xlsx
+++ b/Assets/StreamingAssets/Excels/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\TestSteamVR\Assets\StreamingAssets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\_Git\SteamVR__IK\Assets\StreamingAssets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EDE670-DCAC-4354-A683-2BC34ED764E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3132B64D-6F73-4F83-98CF-F3F6F17982B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34215" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -116,6 +116,34 @@
   </si>
   <si>
     <t>1.2,3.4,5.8</t>
+  </si>
+  <si>
+    <t>ee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0,2.0,3.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -239,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -257,6 +285,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
@@ -550,10 +581,12 @@
     <col min="1" max="1" width="14.25" style="6" customWidth="1"/>
     <col min="2" max="3" width="9" style="6"/>
     <col min="4" max="4" width="14.125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="5" max="10" width="9" style="6"/>
+    <col min="11" max="12" width="9" style="7"/>
+    <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -584,8 +617,17 @@
       <c r="J1" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -616,8 +658,17 @@
       <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="K2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -648,8 +699,17 @@
       <c r="J3" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="K3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -679,6 +739,15 @@
       </c>
       <c r="J4" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
